--- a/biology/Médecine/Liste_des_os_du_squelette_humain/Liste_des_os_du_squelette_humain.xlsx
+++ b/biology/Médecine/Liste_des_os_du_squelette_humain/Liste_des_os_du_squelette_humain.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La liste des os du squelette humain est l'objet d'une organisation topographique de la part de l'ostéologie, branche de l'anatomie qui traite des os. Le système squelettique humain est constitué d'un squelette axial et d'un squelette appendiculaire (membres supérieurs et inférieurs) tous deux attachés à l'axe médian (la colonne vertébrale) par les ceintures scapulaire (ou pectorale) et pelvienne.
-À l'âge adulte le squelette humain comprend 206 os constants[1]. Ces os constants peuvent être divisés en 204 os squelettiques et 2 os sésamoïdes – soit 115 os différents (respectivement, 114 et 1). Avec les os surnuméraires, inconstants, on peut dénombrer jusqu'à 224 os constants, que l'on peut diviser en 212 os squelettiques et 12 os sésamoïdes — soit 128 os différents (respectivement, 122 et 6).
+À l'âge adulte le squelette humain comprend 206 os constants. Ces os constants peuvent être divisés en 204 os squelettiques et 2 os sésamoïdes – soit 115 os différents (respectivement, 114 et 1). Avec les os surnuméraires, inconstants, on peut dénombrer jusqu'à 224 os constants, que l'on peut diviser en 212 os squelettiques et 12 os sésamoïdes — soit 128 os différents (respectivement, 122 et 6).
 </t>
         </is>
       </c>
@@ -512,11 +524,48 @@
           <t>Squelette axial</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le squelette axial est constitué de 80 os articulés parmi 88 os, tous squelettiques et majoritairement impairs (et médians), formant la tête et le tronc. Il comprend les os du crâne, la colonne vertébrale, les côtes et le sternum, ainsi que l'os du larynx, et représente 57 os articulés différents parmi 65 os différents. Sa principale fonction est la protection des organes internes.
-Tête
-Le squelette de la tête, composé des os du crâne et des os de la face, comprend 22 os, auxquels il faut ajouter les 3 os de chaque oreille moyenne.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Liste_des_os_du_squelette_humain</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_os_du_squelette_humain</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Squelette axial</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Tête</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le squelette de la tête, composé des os du crâne et des os de la face, comprend 22 os, auxquels il faut ajouter les 3 os de chaque oreille moyenne.
 Os du crâne (calvarium et base du crâne)
 os frontal, impair (calvaria et base du crâne : front et voûte orbitaire)
 os pariétal, pair (calvaria : calotte crânienne et parties latérales du haut du crâne)
@@ -531,15 +580,50 @@
 Os de la face
 vomer, impair (cavité nasale)
 os maxillaire , pair (sous l'os frontal, forme la mâchoire supérieure)
-os lacrymal[2], pair (à l'intérieur des orbites)
+os lacrymal, pair (à l'intérieur des orbites)
 os palatin, pair (palais osseux)
 cornet nasal inférieur, pair
 os nasal, pair (en avant de la branche montante du maxillaire)
-os zygomatique[3], pair (sous les orbites)
+os zygomatique, pair (sous les orbites)
 mandibule, impair (mâchoire inférieure, mobile)
 Total : 28 os (17 différents dont 11 pairs).
-Tronc
-Cou
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_des_os_du_squelette_humain</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_os_du_squelette_humain</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Squelette axial</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Tronc</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cou
 7 vertèbres cervicales (colonne vertébrale : rachis cervical)
 os hyoïde, impair (os du larynx)
 Thorax
@@ -555,39 +639,110 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Liste_des_os_du_squelette_humain</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Liste_des_os_du_squelette_humain</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Squelette appendiculaire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit du squelette composant les ceintures et les membres. Il est constitué des os de la ceinture scapulaire et du membre supérieur, de la ceinture pelvienne et du membre inférieur. Il est composé de 126 os articulés (124 os squelettiques et 2 os sésamoïdes, soit 63 os articulés différents) parmi 136 os (124 os squelettiques et 12 os sésamoïde, soit 68 os différents), tous pairs (droit et gauche).
-Ceinture scapulaire
-Omoplate (scapula)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_des_os_du_squelette_humain</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_os_du_squelette_humain</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Squelette appendiculaire</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Ceinture scapulaire</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Omoplate (scapula)
 Clavicule
-manubrium sternal
-Membre supérieur
-L'épaule
+manubrium sternal</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_des_os_du_squelette_humain</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_os_du_squelette_humain</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Squelette appendiculaire</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Membre supérieur</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épaule
 Bras
 humérus
 Avant-bras
@@ -600,12 +755,81 @@
 14 phalanges (doigts)
 3 os sésamoïdes (deux à la base du pouce et un à la base de l'index)
 Total : 64 os articulés (32 pairs) parmi 70 os (35 pairs dont 3 sésamoïdes).
-Ceinture pelvienne
-os coxal
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Liste_des_os_du_squelette_humain</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_os_du_squelette_humain</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Squelette appendiculaire</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Ceinture pelvienne</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>os coxal
 Ilium (anatomie)
-Pubis
-Membre inférieur
-Hanche
+Pubis</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Liste_des_os_du_squelette_humain</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_os_du_squelette_humain</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Squelette appendiculaire</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Membre inférieur</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hanche
 Cuisse
 Fémur
 Patella (rotule), sésamoïde
